--- a/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T08:57:10+00:00</t>
+    <t>2026-01-29T15:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T15:20:38+00:00</t>
+    <t>2026-02-18T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:51:09+00:00</t>
+    <t>2026-02-18T15:53:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
+++ b/ajout-NS/ig/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T15:53:06+00:00</t>
+    <t>2026-02-20T14:31:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
